--- a/ket_qua_thi.xlsx
+++ b/ket_qua_thi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,348 +593,6 @@
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Trần Nhật Hải</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>hai260812a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>hai260812a1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>718</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cao Huỳnh Minh Khang </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>khang141212b</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>khang141212b1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>894</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Đặng Anh Khoa</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>khoa080812</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>khoa0808121</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>788</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lê Mỹ Duyên </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>duyen060612</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>duyen0606121</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>718</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nguyễn Thị Mai Phương </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>phuong220912</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>phuong2209121</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19/06/2024</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>718</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nguyễn Thị Mai Phương </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>phuong220912</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>phuong2209121</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Trượt</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Trần Ngọc Phương  Uyên</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>uyen290112</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>uyen2901121</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>806</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trần Nguyên Quỳnh Anh </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>anh021012a</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>anh021012a1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Trượt</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Phạm Thị Thảo Minh</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>minh160712a</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>minh160712a1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>IC3 GS6 Level 1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30/05/2024</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>806</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Đỗ</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
